--- a/Tubes.xlsx
+++ b/Tubes.xlsx
@@ -701,7 +701,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="100" workbookViewId="0">
       <selection activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -788,13 +788,13 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4">
@@ -808,13 +808,13 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F5">
@@ -1211,10 +1211,10 @@
       <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F25">
@@ -1251,7 +1251,7 @@
       <c r="C27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1264,7 +1264,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="0" verticalDpi="0" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>